--- a/Audit Communication Contacts.xlsx
+++ b/Audit Communication Contacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\pyproj\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F096A0-762B-4B45-81FE-562E8C1E60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89464EC7-9B16-4055-A7D4-D41383E572F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CX COs and Delegates" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="325">
   <si>
     <t>Product Area</t>
   </si>
@@ -60,7 +60,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -305,9 +305,6 @@
     <t>I844313 Flavio Costa</t>
   </si>
   <si>
-    <t>I543639 Sucheta Panda</t>
-  </si>
-  <si>
     <t>I342861 Susheel Kumar C</t>
   </si>
   <si>
@@ -344,12 +341,6 @@
     <t>I013851 Markus Wieser</t>
   </si>
   <si>
-    <t>I558247 Deebisha Mahadevan Bagavathi</t>
-  </si>
-  <si>
-    <t>D043513 Albert Kempf</t>
-  </si>
-  <si>
     <t>I840018 Orville Elliston</t>
   </si>
   <si>
@@ -404,18 +395,6 @@
     <t>I508247 Edwin Sun</t>
   </si>
   <si>
-    <t>I326786 Anil Kumar Pudhuvayil</t>
-  </si>
-  <si>
-    <t>D059443 Anton Khromykh</t>
-  </si>
-  <si>
-    <t>I542369 Stefan Flachsbarth</t>
-  </si>
-  <si>
-    <t>I343378 Ramesh K</t>
-  </si>
-  <si>
     <t>I356283 Akshay Prakash</t>
   </si>
   <si>
@@ -509,9 +488,6 @@
     <t>D052974 Charis Toska</t>
   </si>
   <si>
-    <t>I573833 Chetan N</t>
-  </si>
-  <si>
     <t>I350588 Naveen Kumar P S</t>
   </si>
   <si>
@@ -539,12 +515,6 @@
     <t>D024213 Martina Keller</t>
   </si>
   <si>
-    <t>I069054 Sudeep Ranga</t>
-  </si>
-  <si>
-    <t>I318830 Kiran Nandam</t>
-  </si>
-  <si>
     <t>I554477 Rio Yue</t>
   </si>
   <si>
@@ -563,9 +533,6 @@
     <t>I540689 Devaraj H D</t>
   </si>
   <si>
-    <t>I344444 Gurucharan D P</t>
-  </si>
-  <si>
     <t>I326971 Surendra Eguturi</t>
   </si>
   <si>
@@ -635,15 +602,6 @@
     <t>I541619 Komal Shastri</t>
   </si>
   <si>
-    <t>I350842 Venkata Ramana Prasad Adavala</t>
-  </si>
-  <si>
-    <t>D048453 Bjoern Brencher</t>
-  </si>
-  <si>
-    <t>I339251 Ritu Pisal</t>
-  </si>
-  <si>
     <t>I347267 Liad Shiri</t>
   </si>
   <si>
@@ -749,15 +707,6 @@
     <t xml:space="preserve">Markus Niederee </t>
   </si>
   <si>
-    <t xml:space="preserve">Victoria W Castelino </t>
-  </si>
-  <si>
-    <t>From ByD - include or not?</t>
-  </si>
-  <si>
-    <t>I324215 Hridesh Kumar</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Mahuya Paul </t>
   </si>
   <si>
@@ -782,12 +731,6 @@
     <t xml:space="preserve">	Sanjeet Mall</t>
   </si>
   <si>
-    <t xml:space="preserve">	Christian Neuner</t>
-  </si>
-  <si>
-    <t>Santosh Chachadi</t>
-  </si>
-  <si>
     <t>Nancy Sun</t>
   </si>
   <si>
@@ -836,21 +779,6 @@
     <t>Gerry McPhillips</t>
   </si>
   <si>
-    <t>Aby Jose</t>
-  </si>
-  <si>
-    <t>From S4H - include or not?</t>
-  </si>
-  <si>
-    <t>Michael Hartmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Hartmann </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Aby Jose</t>
-  </si>
-  <si>
     <t xml:space="preserve">Liad Shiri </t>
   </si>
   <si>
@@ -887,9 +815,6 @@
     <t xml:space="preserve">Rachel Laventure </t>
   </si>
   <si>
-    <t>Victoria W Castelino</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Kirsten Pfeiffer </t>
   </si>
   <si>
@@ -902,9 +827,6 @@
     <t xml:space="preserve">Thomas Gieselmann </t>
   </si>
   <si>
-    <t xml:space="preserve">	Victoria W Castelino</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Nancy Sun</t>
   </si>
   <si>
@@ -978,9 +900,6 @@
   </si>
   <si>
     <t xml:space="preserve">	Rick Hobbs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Matthias Ems</t>
   </si>
   <si>
     <t>Srivatsa V</t>
@@ -1117,7 +1036,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1125,35 +1044,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1161,7 +1080,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1176,16 +1095,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1295,8 +1220,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{988D317D-F8AB-4133-B9C9-A501A1A8F2FD}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1312,7 +1237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1611,13 +1536,13 @@
   <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43" style="14" customWidth="1"/>
     <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
@@ -1625,1612 +1550,1517 @@
     <col min="4" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="C29" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="20" t="s">
+      <c r="C34" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="20" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="20" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="C37" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="20" t="s">
+      <c r="C38" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="C40" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="20" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="20" t="s">
+      <c r="C43" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="20" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="20" t="s">
+      <c r="C52" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="B53" s="20" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="20" t="s">
+      <c r="B68" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="14" t="s">
+      <c r="B69" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="14" t="s">
+      <c r="B70" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="20" t="s">
+      <c r="B71" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B72" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" s="20"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" s="20" t="s">
+      <c r="C101" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71" s="20" t="s">
+      <c r="C102" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C71" s="20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" s="20" t="s">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104" s="20" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B77" s="20" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="C77" s="20"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="20" t="s">
+      <c r="C106" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="C80" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" s="20" t="s">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B107" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="C81" s="20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="20" t="s">
+      <c r="C107" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B97" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="23" t="s">
+      <c r="B108" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="23" t="s">
         <v>180</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="23" t="s">
-        <v>191</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>51</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B110" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="20" t="s">
-        <v>206</v>
-      </c>
       <c r="B121" s="20" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="20" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="23" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="23" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="23" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="23" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="23" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="20" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="23" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="20" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="20" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C138" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B139" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C139" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B140" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C140" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B141" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="C141" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B142" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C142" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="B143" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="C143" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B144" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="C144" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="C145" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B146" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="C146" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B147" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C147" s="21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B148" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="C148" s="21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B149" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="C149" s="21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="B150" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="C150" s="21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B151" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="C151" s="21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B152" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C152" s="21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="B153" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>261</v>
-      </c>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="21"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+    </row>
+    <row r="139" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="21"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+    </row>
+    <row r="140" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="21"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
+    </row>
+    <row r="141" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="21"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
+    </row>
+    <row r="142" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="21"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+    </row>
+    <row r="143" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="21"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+    </row>
+    <row r="144" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="24"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+    </row>
+    <row r="145" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="21"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="21"/>
+    </row>
+    <row r="146" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="24"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+    </row>
+    <row r="147" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="24"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+    </row>
+    <row r="148" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="21"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+    </row>
+    <row r="149" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="21"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+    </row>
+    <row r="150" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="24"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+    </row>
+    <row r="151" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="21"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="21"/>
+    </row>
+    <row r="152" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="24"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="21"/>
+    </row>
+    <row r="153" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="21"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C136" xr:uid="{6B8FB989-95D1-4851-AF2E-4411979B763B}"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3273,7 +3103,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -3284,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -3295,7 +3125,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -3306,7 +3136,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -3317,7 +3147,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -3328,7 +3158,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -3339,7 +3169,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
@@ -3350,7 +3180,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
@@ -3361,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
@@ -3372,7 +3202,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -3383,7 +3213,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>4</v>
@@ -3394,7 +3224,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -3405,7 +3235,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>4</v>
@@ -3416,7 +3246,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -3427,7 +3257,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>4</v>
@@ -3438,7 +3268,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -3449,7 +3279,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
@@ -3460,7 +3290,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -3471,7 +3301,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>4</v>
@@ -3482,7 +3312,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>4</v>
@@ -3493,7 +3323,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>4</v>
@@ -3504,7 +3334,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -3515,7 +3345,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>4</v>
@@ -3526,7 +3356,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -3537,7 +3367,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>4</v>
@@ -3548,7 +3378,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -3559,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>4</v>
@@ -3570,7 +3400,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -3581,7 +3411,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>4</v>
@@ -3592,7 +3422,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
@@ -3603,7 +3433,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>4</v>
@@ -3614,7 +3444,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -3625,7 +3455,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>4</v>
@@ -3752,7 +3582,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>17</v>
       </c>
@@ -3763,7 +3593,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>21</v>
       </c>
@@ -3774,7 +3604,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>12</v>
       </c>
@@ -3785,7 +3615,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>52</v>
       </c>
@@ -3796,7 +3626,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>62</v>
       </c>
@@ -3812,14 +3642,14 @@
         <v>62</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="39" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>62</v>
       </c>
@@ -3835,10 +3665,10 @@
         <v>68</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -3854,17 +3684,18 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -3885,6 +3716,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0405e7c1-f560-4b82-b33f-d52dc27a986d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ae188c34-9a69-4d65-a329-d1fe366c4635" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DA6D109FFCE987489EA62F1F238415E1" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="062d4f9ea7ef6def29c048956018abdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0405e7c1-f560-4b82-b33f-d52dc27a986d" xmlns:ns3="ae188c34-9a69-4d65-a329-d1fe366c4635" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb3c623a468534829ca5c7765c17c3ac" ns2:_="" ns3:_="">
     <xsd:import namespace="0405e7c1-f560-4b82-b33f-d52dc27a986d"/>
@@ -4133,17 +3975,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0405e7c1-f560-4b82-b33f-d52dc27a986d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ae188c34-9a69-4d65-a329-d1fe366c4635" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD368B8-8002-4711-85B3-48500B64A27B}">
   <ds:schemaRefs>
@@ -4153,6 +3984,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73FD63AF-BD5D-4D21-BEC9-08E37A830539}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ae188c34-9a69-4d65-a329-d1fe366c4635"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0405e7c1-f560-4b82-b33f-d52dc27a986d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2C18DA7-93C9-40DB-B32D-B99ED78CB5C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4169,21 +4017,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73FD63AF-BD5D-4D21-BEC9-08E37A830539}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ae188c34-9a69-4d65-a329-d1fe366c4635"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0405e7c1-f560-4b82-b33f-d52dc27a986d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Audit Communication Contacts.xlsx
+++ b/Audit Communication Contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04096128-520E-4387-8872-F50FDC6BB6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B09E4E-A3E8-4FC9-AD31-3EC506B2E8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Control Owners and Delegates</t>
   </si>
@@ -31,55 +31,22 @@
     <t>Unnamed: 2</t>
   </si>
   <si>
-    <t>CO-Managers</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>I342184 Sonal Jain</t>
   </si>
   <si>
-    <t>Suman Saurabh</t>
-  </si>
-  <si>
-    <t>Sales and Service Devops</t>
-  </si>
-  <si>
     <t>I335413 Abhishek Singh Sajwan</t>
   </si>
   <si>
     <t>D061137 Rita Liebezeit</t>
   </si>
   <si>
-    <t xml:space="preserve">	Anne Boutin Lanz </t>
-  </si>
-  <si>
-    <t>CX Governance &amp; Execution</t>
-  </si>
-  <si>
     <t>I054872 Harsha Sagar Chandre</t>
   </si>
   <si>
-    <t xml:space="preserve">	Balaji Vummiti </t>
-  </si>
-  <si>
-    <t>C4C Dev</t>
-  </si>
-  <si>
     <t>D051936 Balaji Vummiti</t>
   </si>
   <si>
-    <t xml:space="preserve">Sanjeet Mall </t>
-  </si>
-  <si>
     <t>I515275 Rajesh Babu Pulavarthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Blanka Kolodziej </t>
-  </si>
-  <si>
-    <t>CX Provisioning and SRM</t>
   </si>
 </sst>
 </file>
@@ -445,7 +412,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,79 +433,39 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
